--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/国家资本金.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/国家资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>283.75334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>699.04218</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58.06485</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.19172</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.23752</v>
-      </c>
-      <c r="G2" t="n">
-        <v>851.5480700000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>173.22813</v>
-      </c>
-      <c r="I2" t="n">
-        <v>175.04927</v>
-      </c>
-      <c r="J2" t="n">
-        <v>108.67443</v>
-      </c>
-      <c r="K2" t="n">
-        <v>13419.29279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>60.997</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10.04429</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.816129999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>358.92856</v>
-      </c>
-      <c r="P2" t="n">
-        <v>359.76519</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>83.30392999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>33.90423</v>
-      </c>
-      <c r="S2" t="n">
-        <v>39.53423</v>
-      </c>
-      <c r="T2" t="n">
-        <v>96.38381</v>
-      </c>
-      <c r="U2" t="n">
-        <v>76.04386</v>
-      </c>
-      <c r="V2" t="n">
-        <v>312.96819</v>
-      </c>
-      <c r="W2" t="n">
-        <v>248.74835</v>
-      </c>
-      <c r="X2" t="n">
-        <v>887.31481</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2068.521</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>286.88268</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>204.9298</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.79998</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>275.40225</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1468.06169</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>370.57028</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>475.19087</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>158.07787</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>90.37300999999999</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>459.92431</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>123.13911</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>96.66866</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>236.211</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>202.16589</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1798.60649</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>105.66057</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>299.18133</v>
-      </c>
-      <c r="C3" t="n">
-        <v>669.04211</v>
-      </c>
-      <c r="D3" t="n">
-        <v>59.85481</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.15449</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.66239</v>
-      </c>
-      <c r="G3" t="n">
-        <v>806.99014</v>
-      </c>
-      <c r="H3" t="n">
-        <v>108.30007</v>
-      </c>
-      <c r="I3" t="n">
-        <v>184.55235</v>
-      </c>
-      <c r="J3" t="n">
-        <v>117.63384</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13696.98378</v>
-      </c>
-      <c r="L3" t="n">
-        <v>75.53501</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8.693210000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.276870000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>342.88288</v>
-      </c>
-      <c r="P3" t="n">
-        <v>353.38239</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>75.61548000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>30.394</v>
-      </c>
-      <c r="S3" t="n">
-        <v>42.43932</v>
-      </c>
-      <c r="T3" t="n">
-        <v>86.70508</v>
-      </c>
-      <c r="U3" t="n">
-        <v>75.09327999999999</v>
-      </c>
-      <c r="V3" t="n">
-        <v>320.479</v>
-      </c>
-      <c r="W3" t="n">
-        <v>245.12901</v>
-      </c>
-      <c r="X3" t="n">
-        <v>981.0868</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2190.6427</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>293.70513</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>213.6961</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16.22102</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>366.03377</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1543.45355</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>350.51703</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>469.27239</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>183.9031</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>88.69197</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>434.31733</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>152.03945</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>80.95251</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>207.5576</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>199.49726</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1867.74776</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>104.54781</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>314.44837</v>
-      </c>
-      <c r="C4" t="n">
-        <v>791.47159</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.42618</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.21349</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.292389999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>748.70791</v>
-      </c>
-      <c r="H4" t="n">
-        <v>119.45608</v>
-      </c>
-      <c r="I4" t="n">
-        <v>226.41168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>103.38764</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12967.2996</v>
-      </c>
-      <c r="L4" t="n">
-        <v>73.73336</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7.18294</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.77101</v>
-      </c>
-      <c r="O4" t="n">
-        <v>343.04035</v>
-      </c>
-      <c r="P4" t="n">
-        <v>359.57649</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>75.18258</v>
-      </c>
-      <c r="R4" t="n">
-        <v>36.32719</v>
-      </c>
-      <c r="S4" t="n">
-        <v>38.63752</v>
-      </c>
-      <c r="T4" t="n">
-        <v>82.15973</v>
-      </c>
-      <c r="U4" t="n">
-        <v>62.18083</v>
-      </c>
-      <c r="V4" t="n">
-        <v>318.89783</v>
-      </c>
-      <c r="W4" t="n">
-        <v>248.50494</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1250.8641</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2089.65982</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>285.6473</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>186.65175</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11.53642</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>447.32147</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>915.99604</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>332.98266</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>528.60304</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>203.32583</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>88.59768</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>433.84531</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>134.61893</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>79.83987999999999</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>179.47729</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>188.13994</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1436.55583</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>103.30657</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
